--- a/sentiment/weekly/20260119-20260123.xlsx
+++ b/sentiment/weekly/20260119-20260123.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\data\project\2026\workday_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\data\project\2026\sentiment\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BC3157-D8BB-432F-BCA3-2A28BBB310FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F54E0A9-956F-4496-B4E3-3140D2872960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="3560" windowWidth="16200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1190" yWindow="-10910" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,12 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6只;
-沧州大化 2天2板;
-新乡化纤 2天2板;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8只;
 合肥城建 3天2板;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,13 +338,6 @@
 巨力索具 11天6板2连板;
 江化微 4连板;
 九鼎新材 7天4板;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28只;
-九鼎新材 7天4板;
-巨力索具 2天2板;
-北摩高科 4天2板;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -496,6 +483,16 @@
   </si>
   <si>
     <t>汉商集团 5天3板;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16只;
+沧州大化 2天2板;
+新乡化纤 2天2板;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -851,10 +848,10 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31:XFD31"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -898,13 +895,13 @@
         <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="154" x14ac:dyDescent="0.25">
@@ -915,10 +912,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>21</v>
@@ -932,16 +929,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="98" x14ac:dyDescent="0.25">
@@ -952,13 +949,13 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.25">
@@ -969,13 +966,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.25">
@@ -986,13 +983,13 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.25">
@@ -1003,16 +1000,16 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42" x14ac:dyDescent="0.25">
@@ -1023,7 +1020,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1042,7 +1039,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="70" x14ac:dyDescent="0.25">
@@ -1053,16 +1050,16 @@
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.25">
@@ -1081,7 +1078,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.25">
@@ -1098,7 +1095,7 @@
         <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="70" x14ac:dyDescent="0.25">
@@ -1109,18 +1106,18 @@
         <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -1128,16 +1125,16 @@
     </row>
     <row r="18" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -1145,15 +1142,15 @@
     </row>
     <row r="19" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>31</v>
@@ -1161,29 +1158,29 @@
     </row>
     <row r="21" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
         <v>54</v>
-      </c>
-      <c r="D22" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -1191,7 +1188,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -1199,7 +1196,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -1207,7 +1204,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
         <v>31</v>
@@ -1218,7 +1215,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
@@ -1226,15 +1223,15 @@
     </row>
     <row r="28" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
         <v>21</v>
@@ -1242,7 +1239,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E30" t="s">
         <v>31</v>
@@ -1250,7 +1247,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>31</v>
@@ -1258,7 +1255,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>31</v>
@@ -1266,10 +1263,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
